--- a/products_categories/Products details.xlsx
+++ b/products_categories/Products details.xlsx
@@ -27,9 +27,6 @@
     <t>h2</t>
   </si>
   <si>
-    <t>p-id</t>
-  </si>
-  <si>
     <t>image1</t>
   </si>
   <si>
@@ -43,15 +40,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Storage</t>
   </si>
   <si>
     <t>Forever Aloe Vera Gel</t>
@@ -1358,6 +1346,18 @@
 Forever Aloe Vera Gel® – 4 опаковки по 330 мл
 Гелът от алое вера съдържа 99,7% чист гел от вътрешността листата на растението и витамин С, който допринася за нормалната функция на имунната система.
 </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>storage</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1718,8 +1718,8 @@
     <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" style="4"/>
     <col min="5" max="5" width="25.77734375" style="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="1"/>
+    <col min="6" max="6" width="47.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="25.77734375" style="1"/>
   </cols>
@@ -1732,1263 +1732,1263 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>349</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C2:C75 &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1000.png</v>
+        <f t="shared" ref="D2:D21" si="0" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1000.png</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C2:C75 &amp;"a" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1000a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1000a.png</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C2:C75 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1000b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1000b.png</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3">
         <v>1001</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D66" si="0" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C3:C76 &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1001.png</v>
+        <f t="shared" si="0"/>
+        <v>products_img\\Products_details_PNG\\1001.png</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E65" si="1" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C3:C76 &amp;"a" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1001a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C3:C76 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1001a.png</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F65" si="2" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C3:C76 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1001b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C3:C76 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1001b.png</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3">
         <v>1002</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1002.png</v>
+        <v>products_img\\Products_details_PNG\\1002.png</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1002a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C4:C77 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1002a.png</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1002b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C4:C77 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1002b.png</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H4" s="5">
         <v>59.54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3">
         <v>1003</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1003.png</v>
+        <v>products_img\\Products_details_PNG\\1003.png</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C5:C78 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1003b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C5:C78 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1003b.png</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H5" s="5">
         <v>178.61</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3">
         <v>1004</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1004.png</v>
+        <v>products_img\\Products_details_PNG\\1004.png</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C6:C79 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1004b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C6:C79 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1004b.png</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H6" s="5">
         <v>178.61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3">
         <v>1005</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1005.png</v>
+        <v>products_img\\Products_details_PNG\\1005.png</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C7:C80 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1005b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C7:C80 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1005b.png</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H7" s="5">
         <v>178.61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3">
         <v>1006</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1006.png</v>
+        <v>products_img\\Products_details_PNG\\1006.png</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1006a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C8:C81 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1006a.png</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1006b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C8:C81 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1006b.png</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H8" s="5">
         <v>238.12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3">
         <v>1007</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1007.png</v>
+        <v>products_img\\Products_details_PNG\\1007.png</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1007a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C9:C82 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1007a.png</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1007b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C9:C82 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1007b.png</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H9" s="5">
         <v>238.12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3">
         <v>1008</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1008.png</v>
+        <v>products_img\\Products_details_PNG\\1008.png</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C10:C83 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1008b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C10:C83 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1008b.png</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H10" s="5">
         <v>238.12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3">
         <v>1009</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1009.png</v>
+        <v>products_img\\Products_details_PNG\\1009.png</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C11:C84 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1009b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C11:C84 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1009b.png</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H11" s="5">
         <v>81.36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3">
         <v>1010</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1010.png</v>
+        <v>products_img\\Products_details_PNG\\1010.png</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1010a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C12:C85 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1010a.png</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1010b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C12:C85 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1010b.png</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H12" s="5">
         <v>40.06</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3">
         <v>1011</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1011.png</v>
+        <v>products_img\\Products_details_PNG\\1011.png</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1011a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C13:C86 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1011a.png</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1011b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C13:C86 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1011b.png</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H13" s="6">
         <v>8.58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3">
         <v>1012</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1012.png</v>
+        <v>products_img\\Products_details_PNG\\1012.png</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C14:C87 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1012b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C14:C87 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1012b.png</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H14" s="5">
         <v>27.48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3">
         <v>1013</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1013.png</v>
+        <v>products_img\\Products_details_PNG\\1013.png</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C15:C88 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1013b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C15:C88 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1013b.png</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H15" s="5">
         <v>40.06</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3">
         <v>1014</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1014.png</v>
+        <v>products_img\\Products_details_PNG\\1014.png</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C16:C89 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1014b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C16:C89 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1014b.png</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H16" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3">
         <v>1015</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1015.png</v>
+        <v>products_img\\Products_details_PNG\\1015.png</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1015a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C17:C90 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1015a.png</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1015b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C17:C90 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1015b.png</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H17" s="5">
         <v>156.84</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>1016</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1016.png</v>
+        <v>products_img\\Products_details_PNG\\1016.png</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C18:C91 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1016b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C18:C91 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1016b.png</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H18" s="5">
         <v>35.5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
         <v>1017</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1017.png</v>
+        <v>products_img\\Products_details_PNG\\1017.png</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C19:C92 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1017b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C19:C92 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1017b.png</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H19" s="5">
         <v>34.909999999999997</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3">
         <v>1018</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1018.png</v>
+        <v>products_img\\Products_details_PNG\\1018.png</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C20:C93 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1018b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C20:C93 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1018b.png</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H20" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3">
         <v>1019</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1019.png</v>
+        <v>products_img\\Products_details_PNG\\1019.png</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C21:C94 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1019b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C21:C94 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1019b.png</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H21" s="5">
         <v>54.94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="3">
         <v>1020</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C22:C95 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1020b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C22:C95 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1020b.png</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H22" s="5">
         <v>41.79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3">
         <v>1021</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1021.png</v>
+        <f t="shared" ref="D23:D54" si="1" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C23:C96 &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1021.png</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C23:C96 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1021b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C23:C96 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1021b.png</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H23" s="5">
         <v>48.08</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C24" s="3">
         <v>1022</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1022.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1022.png</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1022a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C24:C97 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1022a.png</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1022b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C24:C97 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1022b.png</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H24" s="5">
         <v>84.69</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3">
         <v>1023</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1023.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1023.png</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C25:C98 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1023b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C25:C98 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1023b.png</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H25" s="5">
         <v>80.12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3">
         <v>1024</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1024.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1024.png</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1024a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C26:C99 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1024a.png</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1024b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C26:C99 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1024b.png</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="5">
         <v>187.14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3">
         <v>1025</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1025.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1025.png</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1025a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C27:C100 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1025a.png</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1025b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C27:C100 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1025b.png</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H27" s="5">
         <v>60.68</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="3">
         <v>1026</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1026.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1026.png</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C28:C101 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1026b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C28:C101 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1026b.png</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H28" s="5">
         <v>75.58</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C29" s="3">
         <v>1027</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1027.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1027.png</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1027a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C29:C102 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1027a.png</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1027b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C29:C102 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1027b.png</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H29" s="5">
         <v>88.12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C30" s="3">
         <v>1028</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1028.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1028.png</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C30:C103 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1028b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C30:C103 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1028b.png</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H30" s="5">
         <v>68.680000000000007</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="3">
         <v>1029</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1029.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1029.png</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C31:C104 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1029b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C31:C104 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1029b.png</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H31" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C32" s="3">
         <v>1030</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1030.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1030.png</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1030a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C32:C105 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1030a.png</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1030b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C32:C105 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1030b.png</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H32" s="6">
         <v>118.46</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33" s="3">
         <v>1031</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1031.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1031.png</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1031a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C33:C106 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1031a.png</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1031b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C33:C106 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1031b.png</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H33" s="5">
         <v>36.61</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3">
         <v>1032</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1032.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1032.png</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1032a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C34:C107 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1032a.png</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1032b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C34:C107 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1032b.png</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H34" s="5">
         <v>41.79</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3">
         <v>1033</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1033.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1033.png</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1033a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C35:C108 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1033a.png</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1033b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C35:C108 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1033b.png</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H35" s="5">
         <v>49.78</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3">
         <v>1034</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1034.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1034.png</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C36:C109 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1034b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C36:C109 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1034b.png</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H36" s="5">
         <v>8</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C37" s="3">
         <v>1035</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1035.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1035.png</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C37:C110 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1035b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C37:C110 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1035b.png</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H37" s="5">
         <v>36.08</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="3">
         <v>1036</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1036.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1036.png</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1036a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C38:C111 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1036a.png</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1036b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C38:C111 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1036b.png</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H38" s="5">
         <v>400.64</v>
@@ -2996,234 +2996,234 @@
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="3">
         <v>1037</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1037.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1037.png</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1037a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C39:C112 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1037a.png</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1037b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C39:C112 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1037b.png</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H39" s="5">
         <v>80.12</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" s="3">
         <v>1038</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1038.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1038.png</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C40:C113 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1038b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C40:C113 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1038b.png</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H40" s="5">
         <v>119.05</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" s="3">
         <v>1039</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1039.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1039.png</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1039a.png</v>
+        <f t="shared" ref="E41:E56" si="2" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C41:C114 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1039a.png</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1039b.png</v>
+        <f t="shared" ref="F41:F56" si="3" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C41:C114 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1039b.png</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H41" s="5">
         <v>60.11</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3">
         <v>1040</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1040.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1040.png</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1040a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1040a.png</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1040b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1040b.png</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H42" s="5">
         <v>132.77000000000001</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3">
         <v>1041</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1041.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1041.png</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1041a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1041a.png</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1041b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1041b.png</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H43" s="5">
         <v>83.57</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" s="3">
         <v>1042</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1042.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1042.png</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1042a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1042a.png</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1042b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1042b.png</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H44" s="5">
         <v>41.79</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C45" s="3">
         <v>1043</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1043.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1043.png</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1043a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1043a.png</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1043b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1043b.png</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H45" s="5">
         <v>195.18</v>
@@ -3231,650 +3231,650 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3">
         <v>1044</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1044.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1044.png</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1044a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1044a.png</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1044b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1044b.png</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H46" s="5">
         <v>50.92</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C47" s="3">
         <v>1045</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1045.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1045.png</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1045a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1045a.png</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1045b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1045b.png</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H47" s="5">
         <v>53.82</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C48" s="3">
         <v>1046</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1046.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1046.png</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1046a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1046a.png</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1046b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1046b.png</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H48" s="5">
         <v>53.82</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C49" s="3">
         <v>1047</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1047.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1047.png</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1047a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1047a.png</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1047b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1047b.png</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H49" s="6">
         <v>58.96</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C50" s="3">
         <v>1048</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1048.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1048.png</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1048a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1048a.png</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1048b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1048b.png</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H50" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3">
         <v>1049</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1049.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1049.png</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1049a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1049a.png</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1049b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1049b.png</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H51" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C52" s="3">
         <v>1050</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1050.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1050.png</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1050a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1050a.png</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1050b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1050b.png</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H52" s="5">
         <v>45.24</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3">
         <v>1051</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1051.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1051.png</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1051a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1051a.png</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1051b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1051b.png</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H53" s="5">
         <v>52.68</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="3">
         <v>1052</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1052.png</v>
+        <f t="shared" si="1"/>
+        <v>products_img\\Products_details_PNG\\1052.png</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1052a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1052a.png</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1052b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1052b.png</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H54" s="5">
         <v>45.24</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C55" s="3">
         <v>1053</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1053.png</v>
+        <f t="shared" ref="D55:D86" si="4" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C55:C128 &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1053.png</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1053a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1053a.png</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1053b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1053b.png</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H55" s="5">
         <v>47.53</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3">
         <v>1054</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1054.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1054.png</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1054a.png</v>
+        <f t="shared" si="2"/>
+        <v>products_img\\Products_details_PNG\\1054a.png</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1054b.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Products_details_PNG\\1054b.png</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H56" s="6">
         <v>34.340000000000003</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C57" s="3">
         <v>1055</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1055.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1055.png</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C57:C130 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1055b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C57:C130 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1055b.png</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H57" s="5">
         <v>13.76</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C58" s="3">
         <v>1056</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1056.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1056.png</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1056a.png</v>
+        <f t="shared" ref="E58:E63" si="5" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C58:C131 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1056a.png</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1056b.png</v>
+        <f t="shared" ref="F58:F63" si="6" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C58:C131 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1056b.png</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H58" s="5">
         <v>51.49</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C59" s="3">
         <v>1057</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1057.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1057.png</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1057a.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Products_details_PNG\\1057a.png</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1057b.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Products_details_PNG\\1057b.png</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H59" s="5">
         <v>42.92</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C60" s="3">
         <v>1058</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1058.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1058.png</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1058a.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Products_details_PNG\\1058a.png</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1058b.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Products_details_PNG\\1058b.png</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H60" s="5">
         <v>49.78</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C61" s="3">
         <v>1059</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1059.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1059.png</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1059a.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Products_details_PNG\\1059a.png</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1059b.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Products_details_PNG\\1059b.png</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H61" s="5">
         <v>53.25</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C62" s="3">
         <v>1060</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1060.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1060.png</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1060a.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Products_details_PNG\\1060a.png</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1060b.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Products_details_PNG\\1060b.png</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H62" s="5">
         <v>17.739999999999998</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3">
         <v>1062</v>
       </c>
       <c r="D63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1062.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1062.png</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1062a.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Products_details_PNG\\1062a.png</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1062b.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Products_details_PNG\\1062b.png</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H63" s="6">
         <v>34.340000000000003</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C64" s="3">
         <v>1063</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1063.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1063.png</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C64:C137 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1063b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C64:C137 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1063b.png</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H64" s="5">
         <v>1116.3399999999999</v>
@@ -3882,28 +3882,28 @@
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C65" s="3">
         <v>1064</v>
       </c>
       <c r="D65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1064.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1064.png</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\Products_details_PNG\1064a.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C65:C138 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1064a.png</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\Products_details_PNG\1064b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C65:C138 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1064b.png</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H65" s="5">
         <v>75.19</v>
@@ -3911,287 +3911,287 @@
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C66" s="3">
         <v>1065</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\Products_details_PNG\1065.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1065.png</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C66:C139 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1065b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C66:C139 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1065b.png</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C67" s="3">
         <v>1066</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f t="shared" ref="D67:D75" si="3" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C67:C140 &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1066.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1066.png</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C67:C140 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1066b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C67:C140 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1066b.png</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H67" s="5">
         <v>57.23</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C68" s="3">
         <v>1067</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1067.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1067.png</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C68:C141 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1067b.png</v>
+        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C68:C141 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1067b.png</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H68" s="5">
         <v>57.23</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C69" s="3">
         <v>1068</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1068.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1068.png</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" ref="E69:E75" si="4" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C69:C142 &amp;"a" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1068a.png</v>
+        <f t="shared" ref="E69:E75" si="7" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C69:C142 &amp;"a" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1068a.png</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" ref="F69:F75" si="5" xml:space="preserve"> "products_img\Products_details_PNG\" &amp; C69:C142 &amp;"b" &amp;".png"</f>
-        <v>products_img\Products_details_PNG\1068b.png</v>
+        <f t="shared" ref="F69:F75" si="8" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C69:C142 &amp;"b" &amp;".png"</f>
+        <v>products_img\\Products_details_PNG\\1068b.png</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H69" s="5">
         <v>127.62</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" s="3">
         <v>1069</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1069.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1069.png</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1069a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1069a.png</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1069b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1069b.png</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H70" s="5">
         <v>60.11</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C71" s="3">
         <v>1070</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1070.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1070.png</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1070a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1070a.png</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1070b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1070b.png</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H71" s="5">
         <v>86.44</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C72" s="3">
         <v>1071</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1071.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1071.png</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1071a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1071a.png</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1071b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1071b.png</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H72" s="5">
         <v>10.31</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C73" s="3">
         <v>1072</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1072.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1072.png</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1072a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1072a.png</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1072b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1072b.png</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H73" s="5">
         <v>320.5</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C74" s="3">
         <v>1073</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1073.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1073.png</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1073a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1073a.png</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1073b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1073b.png</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H74" s="5">
         <v>270.32</v>
@@ -4199,25 +4199,25 @@
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3">
         <v>1074</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\Products_details_PNG\1074.png</v>
+        <f t="shared" si="4"/>
+        <v>products_img\\Products_details_PNG\\1074.png</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\Products_details_PNG\1074a.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Products_details_PNG\\1074a.png</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\Products_details_PNG\1074b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Products_details_PNG\\1074b.png</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H75" s="5">
         <v>337.32</v>

--- a/products_categories/Products details.xlsx
+++ b/products_categories/Products details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="395">
   <si>
     <t>h1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Aloe Vera Gel TriPack</t>
-  </si>
-  <si>
-    <t>Forever Aloe Mango TriPak</t>
   </si>
   <si>
     <t>Aloe Berry Nectar TriPak</t>
@@ -271,9 +268,6 @@
     <t>Гел от Алое Вера ТриПак</t>
   </si>
   <si>
-    <t>Алое Манго ТриПак</t>
-  </si>
-  <si>
     <t>Алое Бери Нектар ТриПак</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
   </si>
   <si>
     <t>DX4 Балансираща програма</t>
-  </si>
-  <si>
-    <t>Само за преференциални клиенти</t>
   </si>
   <si>
     <t>Стабилизиран гел от алое вера [гел от алое вера (99,7%), витамин С (аскорбинова киселина), антиоксидант (аскорбинова киселина), регулатор на киселинността (лимонена киселина)].</t>
@@ -879,11 +870,6 @@
   <si>
     <t>Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася и за растежа на полезните чревни бактерии. То е чудесно и за кожата, а уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система. Всъщност ацемананът е един от ключовите маркери, с който Международният научен съвет за алое определя качеството на алое вера. Гелът на Форевър съдържа близо два пъти по-високо количество от изискваното за сертифициране. Сега напитката съдържа и много витамин C, който пък допринася за нормалната функция на имунната система и за нормалното протичане на метаболизма и производството на енергия.
 Гелът от алое вера на Форевър се преработва асептично, което ни позволява да не добавяме никакви консерванти. Новата ни формула може да се похвали с 99,7% чист гел от вътрешността на листата на растението, внимателно извлечен на ръка, за да се наслаждавате на истинската сила на природата. Сега в Тетра Пак опаковка, изработена от 100% рециклируеми материали, гелът от алое вера ви дава възможност да се насладите на свежия вкус на неразреденото алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
-  </si>
-  <si>
-    <t>Със своите 86% чисто алое вера Форевър алое манго предлага всички полезни свойства на водещия ни гел от алое вера плюс питателно допълнение от натурално пюре от манго, богато на нутриенти и важния витамин C. Влаганите във Форевър алое манго плодове се берат, когато са отлично узрели, за да се гарантира, че богатият аромат и съдържанието на полезни вещества са оптимални.
-Алое вера има естествени изчистващи свойства, които помагат на тялото да усвоява всичко полезно от храната по-пълноценно. Уникалният полизахарид ацеманан и останалите полезни вещества в алоето подкрепят храносмилането и имунната система.
-Като всички наши алое напитки и Алое манго се произвежда по асептична технология, което ни позволява да не добавяме никакви консерванти. Тетра пак опаковката е изработена от 100% рециклируеми материали и ви дава възможност да се насладите на свежия вкус на алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
   </si>
   <si>
     <t>Форевър алое бери нектарът съдържа 90,7% гел от вътрешността на листата на растението плюс натурални плодови концентрати, за да подкрепя имунната ви система и да ви зарежда с жизненост.
@@ -1359,6 +1345,189 @@
   <si>
     <t>storage</t>
   </si>
+  <si>
+    <t>Forever Aloe Peaches</t>
+  </si>
+  <si>
+    <t>Forever MÓR</t>
+  </si>
+  <si>
+    <t>Алое и праскови</t>
+  </si>
+  <si>
+    <t>Forever Malosi Fine Frangrance for Him</t>
+  </si>
+  <si>
+    <t>Forever Alofa Fine Frangrance for Her</t>
+  </si>
+  <si>
+    <t>Nourishing Hair Oil</t>
+  </si>
+  <si>
+    <t>Парфюм "Малоси" за него</t>
+  </si>
+  <si>
+    <t>Парфюм "Алофа" за нея</t>
+  </si>
+  <si>
+    <t>Подхранващо масло за коса</t>
+  </si>
+  <si>
+    <t>Форевър МООР</t>
+  </si>
+  <si>
+    <t>Forever Aloe Peach TriPak</t>
+  </si>
+  <si>
+    <t>Алое Праскова ТриПак</t>
+  </si>
+  <si>
+    <t>FAB X Forever Active Boost</t>
+  </si>
+  <si>
+    <t>ФАБ Х Форевър актив бууст</t>
+  </si>
+  <si>
+    <t>Forever Absorbent-D</t>
+  </si>
+  <si>
+    <t>Абсорбент-Д</t>
+  </si>
+  <si>
+    <t>Aloe Bio-Cellulose Mask</t>
+  </si>
+  <si>
+    <t>Алое био-целуозна маска</t>
+  </si>
+  <si>
+    <t>Стабилизиран гел от алое вера [гел от алое вера (84,3%), витамин С (L-аскорбинова киселина), антиоксидант (L-аскорбинова киселина), регулатор на киселинността (лимонена киселина)], натурален пюре от праскови (8%), фруктоза, натурален концентрат от бяло грозде, натурален аромат на праскови.</t>
+  </si>
+  <si>
+    <t>Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася и за растежа на полезните чревни бактерии. Уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система.
+84.5% чист гел от вътрешността на листата на растението са съчетани със сочно пюре от праскови в ароматна напитка със сладък вкус и цялата сила на чистото алое вера. Прасковеното пюре обогатява напитката с калций, калий и витамин С.
+Форевър алое и праскови се преработва асептично, което ни позволява да не добавяме никакви консерванти. Сега в 100% рециклируема РЕТ бутилка, изработена от 50% рециклиран материал, лека, здрава и екологична. Форевър АЛОЕ И ПРАСКОВИ ви дава възможност да се насладите на свежия вкус на неразреденото алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
+  </si>
+  <si>
+    <t>Използвайте една капсула за приготвяне на еспресо (40 ml). Съвместими с кафемашини Nespresso®.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На сухо и хладно място. </t>
+  </si>
+  <si>
+    <t>Печено и мляно кафе, таурин, декстроза, кофеин, ниацин (никотинамид), витамин B6 (пиридоксин хидрохлорид), пантотенова киселина (калциев D-пантотенат), витамин B12 (цианокобаламин). Сертифицирано от Rainforest Alliance.</t>
+  </si>
+  <si>
+    <t>Троен пакет с ароматната и вкусна алое напитка Алое и праскови.
+84.5% чист гел от вътрешността на листата на растението са съчетани със сочно пюре от праскови в ароматна напитка със сладък вкус и цялата сила на чистото алое вера. Прасковеното пюре обогатява напитката с калций, калий и витамин С.
+Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася и за растежа на полезните чревни бактерии. Уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система.
+В този вариант на тройния пакет ще откриете три еднолитрови PET бутилки АЛОЕ И ПРАСКОВИ в еко кутия от рециклиран картон.</t>
+  </si>
+  <si>
+    <t>Форевър МООР е следващата стъпка в еволюцията на сутрешното ви кафе, издигайки го до ново ниво с уникална комбинация от B витамини и таурин. Идеално е за изтънчени кафе ентусиасти, които търсят нещо повече от чаша еспресо.
+С витамини B3, B5, B6, и B12, това функционално кафе надгражда върху кофеина, като подкрепя както физическата, така и умствената ви форма*, за да сте в оптимална кондиция през целия ден. Витамините от В комплекса играят ключова роля в подкрепа на производството на енергия и метаболизма, а четирите от тях във Форевър МООР допринасят и за намаляване на чувството за отпадналост и умора, и за нормалното протичане на метаболизма и производството на енергия. Към тях е добавен и таурин – условно незаменима аминокиселина, която откриваме в мозъка, очите, сърцето и мускулите.
+Капсулите са съвместими с кафемашини Nespresso®** и съчетават сортове кафе арабика и робуста от Южна и Централна Америка, както и от Азия, сертифицирани от Rainforest Alliance (Алианс на тропическите гори). Резултатът е интензивна композиция с богати шоколадови нотки и цитрусов послевкус, която гарантирано ще допадне на любителите на кафе.
+Заредете деня си с енергия с чаша Форевър МООР – за мощен старт сутрин или пък за съвземане по всяко време на деня.</t>
+  </si>
+  <si>
+    <t>Поемете контрол върху деня си с ФАБ Х. Енергийна напитка на базата на гуарана - естествен източник на кофеин от Амазония, съчетана с витамини от B групата и таурин - аминокиселина, която откриваме в мозъка, очите, сърцето и мускулите. Ще ви зареди с енергията, от която имате нужда по всяко време.
+Витамини B3 (ниацин), B6 и B12 допринасят за нормалната психична функция, включваща възприятие, познание, мислене, разсъждение, решаване на проблеми, памет и вземане на решения. А добавеният във ФАБ Х рибофлавин (витамин B2) пък допринася за нормалния метаболизъм и производството на енергия, подкрепя нервната система и спомага за намаляване на чувството за отпадналост и умора. 
+Диетичната напитка е и много вкусна. Можете да се наслаждавате на свежия ? плодов аромат с черешов послевкус, без да се отклонявате от своите фитнес цели, защото ФАБ Х не съдържа въглехидрати или калории.
+Дали имате нужда от енергиен заряд за тренировката си, или допълнителен тласък през дългия работен ден, ФАБ Х ще даде на тялото и ума ви необходимото гориво.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Газирана вода, енергийна база [аромат тути фрути, екстракт от червени боровинки, кофеин, оцветител (сулфит амония карамел), екстракт от семена на гуарана, плод ацерола на прах, витамини (В2, В3, В6, В12)], регулатори на киселинността (лимонена киселина, тринатриев цитрат), таурин, глюкоронолактон, инозитол, подсладители (сукралоза, ацесулфам К). </t>
+  </si>
+  <si>
+    <t>По една кутийка дневно. Разклатете леко и сервирайте изстудена. ВНИМАНИЕ! Високо съдържание на кофеин (32 mg/100 ml). Не се препоръчва за деца, бременни жени или кърмачки.</t>
+  </si>
+  <si>
+    <t>Открийте силата на Абсорбент-D – удобна хранителна добавка, доставяща витамин D и вписваща се идеално в натовареното ви ежедневие. Създадени с уникална комбинация от витамини D и E, дъвчащите таблетки с аромат на кактуса опунция с лекота ще обогатят здравословния ви начин на живот.
+Витамин D допринася за нормалната функция на имунната система и за нормалното състояние на костите, а витамин E е антиоксидант, който спомага за защита на клетките от оксидативен стрес. Витамин D също допринася за нормалното усвояване и използване на калций и фосфор, както и за поддържането на нормална концентрация на калций в кръвта. Подкрепя функцията на мускулите и състоянието на зъбите, участва в процеса на делене на клетките.
+Човешкият организъм си набавя витамин D от храната и слънцето, но понякога той може да не е достатъчно. На помощ идва вкусният и практичен Абсорбент-D – всяка таблетка ви зарежда с 20 микрограма от слънчевия витамин, за да сте спокойни.
+Таблетките са с натурален вкус на опунция, наричана още бодлива круша. Червените плодове, вложени в Абсорбент-D, са от кактус, растящ в полупустинен климат, и именно те придават приятния розов цвят на таблетките без изкуствени оцветители.
+Допълнете дневния си режим с дъвчащите таблетки Форевър АБСОРБЕНТ-D – идеално съчетание на удобство и незаменими нутриенти за вашия организъм.</t>
+  </si>
+  <si>
+    <t>Подсладител (сорбитол), фруктоза, сок от опунция (Opuntia ficus-indica) на прах (11%), витамин E (d-алфа токоферил ацетат), антислепващи агенти (стеаринова киселина, магнезиеви соли на мастни киселини, силициев диоксид), регулатор на киселинността (лимонена киселина), аромат (портокал), витамин D, (холекалциферол).</t>
+  </si>
+  <si>
+    <t>Препоръчителна доза – по една дъвчаща таблетка дневно.</t>
+  </si>
+  <si>
+    <t>Алое био-целулозната маска осигурява двуфазно полезно действие. Посредством уникален за Форевър процес специална бактерия натурално ферментира гел от алое вера от нашите собствени плантации и морска трева, за да ги слее в био-целулозна тъкан, която успокоява, омекотява и обгрижва кожата. Тъканта е напоена със серум, обогатен със зелен чай, див кестен и масло от ливадина за подмладяване на повехналата кожа, помощ в борбата със свободните радикали и с признаците на стареене, успокояване и намаляване на зачервяването. Това са два невероятни ефекта от една-единствена маска.
+Нашата алое био-целулозна маска е лесна за употреба и не изисква изплакване. Просто втрийте останалия серум в лицето и шията си. Тъй като благодарение на био-целулозата серумът прониква многократно по-дълбоко, отколкото при традиционните маски, ще чувствате интензивната хидратация далеч по-дълго след употреба.</t>
+  </si>
+  <si>
+    <t>Aqua, Propanediol, Glycerin, Aloe Barbadensis Leaf Juice, 1,2-Hexanediol, Hydroxyacetophenone, Glycosyl Trehalose, Mannitol, Hydrogenated Ethylhexyl Olivate, Hydrogenated Starch Hydrolysate, Xanthan Gum, Hydrolyzed Sclerotium Gum, Polyglyceryl-6 Stearate, Simmondsia Chinensis Seed Oil, Ammonium Glycyrrhizate, Limnanthes Alba Seed Oil, Hydrogenated Olive Oil Unsaponifiables, Sodium Hyaluronate, Potassium Sorbate, Polyglyceryl-6 Behenate, Caffeine, Citric Acid, Sodium Benzoate, Zinc Gluconate, Aesculus Hippocastanum Seed Extract, Camellia Sinensis Leaf Extract, Phenoxyethanol, Ascorbic Acid.</t>
+  </si>
+  <si>
+    <t>Отворете опаковката, извадете и разгънете маската.
+Тя е защитена от двете страни от тънка тъкан. Отлепете единия слой.
+Поставете маската върху лицето. Притиснете леко, за да прилепне добре.
+Отлепете и втория слой защитна тъкан.
+Отпуснете се с маската за около 20 минути и след това я свалете. Няма нужда от изплакване, просто втрийте останалия серум в лицето и шията за младежко излъчване.</t>
+  </si>
+  <si>
+    <t>Напръсквайте на места като например зад челюстта, в сгъвките на лактите, от вътрешната страна на китките и дори в сгъвките на коленете.</t>
+  </si>
+  <si>
+    <t>Alcohol Denat., Parfum, Aqua, Limonene, Benzyl Benzoate, Linalool, Citronellol, Coumarin, Citral, Geraniol.</t>
+  </si>
+  <si>
+    <t>Alcohol Denat., Parfum, Aqua, Limonene, Linalool, Benzyl Salicylate, Hydroxycitronellal, Coumarin, Hexyl Cinnamal, Citronellol, Geraniol, Benzyl Benzoate, Farnesol.</t>
+  </si>
+  <si>
+    <t>Свежа, деликатно сладка комбинация от пленително, топло цветно ухание. Обгърнете сетивата си със силата на любовта на островите Самоа с помощта на този изключителен фин парфюм, който отдава почит към основателя на Форевър Рекс Моън и неговата дълбока връзка с народа на Самоа.
+На самоански „алофа“ означава „любов“ – дума, втъкана в същността на Форевър от Рекс, който често казваше, че „силата на Форевър е силата на любовта“.
+Финият парфюм АЛОФА ЗА НЕЯ предава именно това усещане за обич с пленително ухание, създадено специално за Форевър. Всестранният аромат се отличава с внимателно подбрани растителни благоухания, които пленяват. Цветни нотки като сладък жасмин се преплитат със свежи цитруси и топлия дъх на сандалово дърво. Резултатът е елегантен парфюм, улавящ същността на женствеността.
+Освен с благовонната си притегателна сила, продуктът доставя наслада и с опаковката си. Финият парфюм АЛОФА ЗА НЕЯ е във внимателно оформен флакон с традиционни културни мотиви, създадени от самоански художник и изобразяващи същинския смисъл на „алофа“.</t>
+  </si>
+  <si>
+    <t>Мъжкият фин парфюм Малоси е интригуващо ухание на гора с ароматни нотки на подправки. Обгърнете сетивата си със силата на любовта на островите Самоа с помощта на този изключителен фин парфюм, който отдава почит към основателя на Форевър Рекс Моън и неговата дълбока връзка с народа на Самоа.
+На самоански „малоси“ означава „сила“ – дума, втъкана в същността на Форевър от Рекс, който често казваше, че „силата на Форевър е силата на любовта.“
+Изразителният и изтънчен аромат на финия парфюм МАЛОСИ ЗА НЕГО предава именно това усещане за обич и сила с ухание, създадено специално за Форевър. Дръзкият аромат включва внимателно подбрана комбинация от растения, които пленяват. Нотките на бергамот и сандалово дърво се смесват с освежаващите ухания на кипарис и цитруси. Резултатът е добре балансиран парфюм, идеален за всеки ден или за официални поводи.
+В допълнение към очарователното ухание наслада носи и самата опаковка. Парфюмът МАЛОСИ ЗА НЕГО е в е във внимателно оформен флакон с традиционни културни мотиви, създадени от самоански художник и изобразяващи същинския смисъл на „малоси“.
+С финия парфюм МАЛОСИ ЗА НЕГО избирате сила и увереност за деня или вечерта си. Изкусно създаденият парфюм нанася съблазнителни заключителни щрихи към всекидневния ви режим.</t>
+  </si>
+  <si>
+    <t>Подхранващото масло за коса е с растителни съставки и не натежава върху косата. Шест растителни масла без силикони предлагат хидратация и подхранване. Маслото от  крамбе се извлича от растението Crambe abyssinica (родственик на рапицата). То предпазва и заздравява косата, за да се справя по-добре със стилизирането и агресорите на околната среда. Маслото от жожоба придава блясък и прави косата лесна за разресване. Укрепващото масло от патауа е богато на антиоксиданти, които успокояват и заглаждат. Маслото цубаки, извлечено от японска камелия, предлага еластичност. Маслото от пекуи, известно още като „златото на Серадо“, се получава от плодовете на бразилско дърво. Мастните му киселини и антиоксиданти придават блясък и заглаждат косата. И накрая е маслото от шафранка, което възстановява хидратацията, заздравява и омекотява косата.</t>
+  </si>
+  <si>
+    <t>C15-19 Alkane, Isoamyl Laurate, Caprylic/Capric Triglyceride, Crambe Abyssinica Seed Oil Phytosterol Esters, Simmondsia Chinensis (Jojoba) Seed Oil, Camellia Japonica Seed Oil, Parfum, Oenocarpus Bataua Fruit Oil, Caryocar Brasiliense Fruit Oil, Carthamus Tinctorius (Safflower) Seed Oil, Benzyl Benzoate, Tocopheryl Acetate, Aloe Barbadensis Leaf Extract, Beta Vulgaris (Beet) Root Extract, Hexyl Cinnamal, Linalool, Benzyl Salicylate, Citronellol, Tocopherol.</t>
+  </si>
+  <si>
+    <t>Сложете няколко капки на дланта си, разтрийте ръце и нанесете маслото върху влажна коса от средата на дължината на косъма до краищата. Може да се ползва и на суха коса след стилизиране.</t>
+  </si>
+  <si>
+    <t>Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася и за растежа на полезните чревни бактерии. То е чудесно и за кожата, а уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система. Всъщност ацемананът е един от ключовите маркери, с който Международният научен съвет за алое определя качеството на алое вера. Гелът на Форевър съдържа близо два пъти по-високо количество от изискваното за сертифициране. Сега напитката съдържа и много витамин C, който пък допринася за нормалната функция на имунната система и за нормалното протичане на метаболизма и производството на енергия.
+Гелът от алое вера на Форевър се преработва асептично, което ни позволява да не добавяме никакви консерванти. Новата ни формула може да се похвали с 99,7% чист гел от вътрешността на листата на растението, внимателно извлечен на ръка, за да се наслаждавате на истинската сила на природата. Еднолитровата опаковка е в 100% рециклируема РЕТ бутилка, изработена от 50% рециклиран материал, лека, здрава и екологична. Алое вера гелът ви дава възможност да се насладите на свежия вкус на неразреденото алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
+  </si>
+  <si>
+    <t>Със своите 86% чисто алое вера Форевър алое манго предлага всички полезни свойства на водещия ни гел от алое вера плюс питателно допълнение от натурално пюре от манго, богато на нутриенти и важния витамин C. Влаганите във Форевър алое манго плодове се берат, когато са отлично узрели, за да се гарантира, че богатият аромат и съдържанието на полезни вещества са оптимални.
+Алое вера има естествени изчистващи свойства, които помагат на тялото да усвоява всичко полезно от храната по-пълноценно. Уникалният полизахарид ацеманан и останалите полезни вещества в алоето подкрепят храносмилането и имунната система.
+Като всички наши алое напитки и Алое манго се произвежда по асептична технология, което ни позволява да не добавяме никакви консерванти. Сега в 100% рециклируема РЕТ бутилка, изработена от 50% рециклиран материал, лека, здрава и екологична. Насладете се на свежия вкус на алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
+  </si>
+  <si>
+    <t>Форевър алое бери нектарът съдържа 90,7% гел от вътрешността на листата на растението плюс натурални плодови концентрати, за да подкрепя имунната ви система и да ви зарежда с жизненост.
+Алоето притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася за растежа на полезните чревни бактерии. То е чудесно и за кожата, а уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система.
+Експлозия от червени боровинки и ароматни ябълки придава на тази напитка сладък и приятно тръпчив вкус от натурални източници. Наричат червените боровинки суперхрана, защото антиоксидантната им сила е 20 пъти по-висока от тази на витамин С, а и техните проантоцианидини предлагат подкрепа за пикочната система. Специалният фитонутриент в ябълките – кверцетинът, също е мощен антиоксидант. Тези великолепни съставки плюс 90,7% чист гел от вътрешността на листата на алое вера превръщат този нектар в отличен избор.
+Алое бери нектарът на Форевър се преработва асептично, което ни позволява да не добавяме никакви консерванти. Еднолитровата опаковка е в 100% рециклируема РЕТ бутилка, изработена от 50% рециклиран материал, лека, здрава и екологична. Алое бери нектарът ви дава възможност да се насладите на свежия вкус на неразреденото алое вера с всички негови полезни съставки - така, както природата го е създала.</t>
+  </si>
+  <si>
+    <t>Троен пакет с любимия и неповторим ГЕЛ ОТ АЛОЕ ВЕРА.
+Алое вера притежава естествени изчистващи свойства, които помагат на храносмилателната система да усвоява полезните вещества от приеманите храни, като същевременно допринася за растежа на полезните чревни бактерии. То е чудесно и за кожата, а уникалният полизахарид ацеманан и другите нутриенти в състава му допринасят за подкрепа на имунната система. Гелът от алое вера на Форевър е богат източник на витамин C, който пък допринася за нормалната функция на имунната система и за нормалното протичане на метаболизма и производството на енергия.
+Новата формула съдържа 99,7% чист гел от вътрешността на листата на растението и сега е в Тетра Пак опаковка, изработена от 100% рециклируеми материали.
+В този вариант на тройния пакет ще откриете три еднолитрови PET бутилки ГЕЛ ОТ АЛОЕ ВЕРА в еко кутия от рециклиран картон.</t>
+  </si>
+  <si>
+    <t>Троен пакет с освежаващия и вкусен Алое бери нектар.
+Освежаващи червени боровинки, съчетани със сладки ябълки, превръщат любимия гел от алое вера в ободряваща напитка, която не само подпомага храносмилането, но и прелива от фитонутриенти и витамини. Форевър алое бери нектарът съдържа 90,7% гел от вътрешността на листата на растението плюс натурални плодови концентрати, за да подкрепя имунната система и да ви зарежда с жизненост.
+Антиоксидантната сила на червените боровинки е 20 пъти по-висока от тази на витамин С, а нейните проантоцианидини предлагат подкрепа за пикочната система. Специалният фитонутриент в ябълките – кверцетинът, също е мощен антиоксидант. Всички тези чудесни съставки са съчетани с 90.7% чист гел от вътрешността на листата на алое вера във вкусна и ободряваща напитка.
+В този вариант на тройния пакет ще откриете три еднолитрови PET бутилки Алое бери нектар в еко кутия от рециклиран картон.</t>
+  </si>
+  <si>
+    <t>Направи запитване</t>
+  </si>
 </sst>
 </file>
 
@@ -1367,7 +1536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,6 +1550,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1403,7 +1586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1426,6 +1609,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -1706,19 +1906,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="25.77734375" style="1"/>
     <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="4"/>
-    <col min="5" max="5" width="25.77734375" style="1"/>
-    <col min="6" max="6" width="47.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.77734375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="25.77734375" style="1"/>
@@ -1732,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -1750,13 +1950,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1764,37 +1964,37 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
       <c r="D2" s="4" t="str">
-        <f t="shared" ref="D2:D21" si="0" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1000.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C2:C83 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1000.jpg</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1000a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C2:C83 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1000a.jpg</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C2:C75 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1000b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C2:C83 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1000b.jpg</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,2424 +2002,2699 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
         <v>1001</v>
       </c>
       <c r="D3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1001.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C3:C84 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1001.jpg</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C3:C76 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1001a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C3:C84 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1001a.jpg</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C3:C76 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1001b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C3:C84 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1001b.jpg</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D4" s="4" t="str">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1075</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f t="shared" ref="D4:D5" si="0" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1075.jpg</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f t="shared" ref="E4:E5" si="1" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1075a.jpg</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" ref="F4:F5" si="2" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C4:C85 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1075b.jpg</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="12">
+        <v>59.54</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1082</v>
+      </c>
+      <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1002.png</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C4:C77 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1002a.png</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C4:C77 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1002b.png</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="5">
-        <v>59.54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1003.png</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C5:C78 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1003b.png</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="5">
-        <v>178.61</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>154</v>
+        <v>products_img\\Product_details_JPG\\1082.jpg</v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>products_img\\Product_details_JPG\\1082a.jpg</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>products_img\\Product_details_JPG\\1082b.jpg</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H5" s="12">
+        <v>55.51</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1004.png</v>
+        <f t="shared" ref="D6:D14" si="3" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C6:C85 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1002.jpg</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C6:C79 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1004b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C6:C85 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1002a.jpg</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C6:C85 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1002b.jpg</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="H6" s="5">
-        <v>178.61</v>
+        <v>59.54</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3">
-        <v>1005</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1005.png</v>
+        <v>1003</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C7:C80 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1005b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C7:C86 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1003b.jpg</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
       <c r="H7" s="5">
         <v>178.61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C8:C87 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1004b.jpg</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="12">
+        <v>178.61</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1006</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1006.png</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C8:C81 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1006a.png</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C8:C81 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1006b.png</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="5">
-        <v>238.12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>154</v>
+      <c r="K8" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3">
-        <v>1007</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1007.png</v>
+        <v>1005</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C9:C82 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1007a.png</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C9:C82 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1007b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C9:C88 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1005b.jpg</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="H9" s="5">
-        <v>238.12</v>
+        <v>178.61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1008.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Product_details_JPG\\1006.jpg</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C10:C83 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1008b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C10:C89 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1006a.jpg</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C10:C89 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1006b.jpg</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H10" s="5">
         <v>238.12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1009.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Product_details_JPG\\1007.jpg</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C11:C84 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1009b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C11:C90 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1007a.jpg</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C11:C90 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1007b.jpg</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H11" s="5">
-        <v>81.36</v>
+        <v>238.12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1010.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Product_details_JPG\\1008.jpg</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C12:C85 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1010a.png</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C12:C85 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1010b.png</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>282</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C12:C91 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1008b.jpg</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="H12" s="5">
-        <v>40.06</v>
+        <v>238.12</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>90</v>
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C13" s="3">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1011.png</v>
+        <f t="shared" si="3"/>
+        <v>products_img\\Product_details_JPG\\1009.jpg</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C13:C86 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1011a.png</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C13:C86 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1011b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C13:C92 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1009b.jpg</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H13" s="6">
+        <v>277</v>
+      </c>
+      <c r="H13" s="5">
+        <v>81.36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1076</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>products_img\\Product_details_JPG\\1076.jpg</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C14:C93 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1076a.jpg</v>
+      </c>
+      <c r="F14" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C14:C93 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1076b.jpg</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H14" s="12">
         <v>8.58</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1012</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1012.png</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C14:C87 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1012b.png</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H14" s="5">
-        <v>27.48</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>169</v>
+      <c r="I14" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1013.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C15:C93 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1010.jpg</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C15:C88 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1013b.png</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>285</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C15:C93 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1010a.jpg</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C15:C93 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1010b.jpg</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="H15" s="5">
         <v>40.06</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="3">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1014.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C16:C94 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1011.jpg</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C16:C89 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1014b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C16:C94 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1011a.jpg</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C16:C94 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1011b.jpg</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="5">
-        <v>72.680000000000007</v>
+        <v>279</v>
+      </c>
+      <c r="H16" s="6">
+        <v>8.58</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1015.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C17:C95 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1012.jpg</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C17:C90 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1015a.png</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C17:C90 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1015b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C17:C95 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1012b.jpg</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H17" s="5">
-        <v>156.84</v>
+        <v>27.48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1016</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1016.png</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C18:C91 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1016b.png</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" s="5">
-        <v>35.5</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1078</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C18:C96 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1078.jpg</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C18:C96 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1078a.jpg</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f t="shared" ref="F18" si="4" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C18:C96 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1078b.jpg</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H18" s="12">
+        <v>32.61</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1017.png</v>
+        <f t="shared" ref="D19:D25" si="5" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C19:C96 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1013.jpg</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C19:C92 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1017b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C19:C96 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1013b.jpg</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H19" s="5">
-        <v>34.909999999999997</v>
+        <v>40.06</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1018.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1014.jpg</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C20:C93 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1018b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C20:C97 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1014b.jpg</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H20" s="5">
         <v>72.680000000000007</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>products_img\\Products_details_PNG\\1019.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1015.jpg</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C21:C94 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1019b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C21:C98 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1015a.jpg</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C21:C98 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1015b.jpg</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H21" s="5">
-        <v>54.94</v>
+        <v>156.84</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3">
-        <v>1020</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C22:C95 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1020b.png</v>
+        <v>1016</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1016.jpg</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C22:C99 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1016b.jpg</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H22" s="5">
-        <v>41.79</v>
+        <v>35.5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" ref="D23:D54" si="1" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C23:C96 &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1021.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1017.jpg</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C23:C96 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1021b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C23:C100 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1017b.jpg</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H23" s="5">
-        <v>48.08</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C24" s="3">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1022.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1018.jpg</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C24:C97 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1022a.png</v>
-      </c>
-      <c r="F24" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C24:C97 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1022b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C24:C101 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1018b.jpg</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H24" s="5">
-        <v>84.69</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1023.png</v>
+        <f t="shared" si="5"/>
+        <v>products_img\\Product_details_JPG\\1019.jpg</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C25:C98 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1023b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C25:C102 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1019b.jpg</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H25" s="5">
-        <v>80.12</v>
+        <v>54.94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3">
-        <v>1024</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1024.png</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C26:C99 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1024a.png</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C26:C99 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1024b.png</v>
+        <v>1020</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C26:C103 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1020b.jpg</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H26" s="5">
-        <v>187.14</v>
+        <v>41.79</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C27" s="3">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1025.png</v>
+        <f t="shared" ref="D27:D40" si="6" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C27:C104 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1021.jpg</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C27:C100 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1025a.png</v>
-      </c>
-      <c r="F27" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C27:C100 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1025b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C27:C104 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1021b.jpg</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H27" s="5">
-        <v>60.68</v>
+        <v>48.08</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C28" s="3">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1026.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1022.jpg</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C28:C101 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1026b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C28:C105 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1022a.jpg</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C28:C105 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1022b.jpg</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H28" s="5">
-        <v>75.58</v>
+        <v>84.69</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1027.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1023.jpg</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C29:C102 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1027a.png</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C29:C102 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1027b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C29:C106 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1023b.jpg</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H29" s="5">
-        <v>88.12</v>
+        <v>80.12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C30" s="3">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="D30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1028.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1024.jpg</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C30:C103 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1028b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C30:C107 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1024a.jpg</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C30:C107 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1024b.jpg</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H30" s="5">
-        <v>68.680000000000007</v>
+        <v>187.14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1029.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1025.jpg</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C31:C104 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1029b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C31:C108 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1025a.jpg</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C31:C108 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1025b.jpg</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H31" s="5">
-        <v>72.680000000000007</v>
+        <v>60.68</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>109</v>
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C32" s="3">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1030.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1026.jpg</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C32:C105 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1030a.png</v>
-      </c>
-      <c r="F32" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C32:C105 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1030b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C32:C109 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1026b.jpg</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H32" s="6">
-        <v>118.46</v>
+        <v>294</v>
+      </c>
+      <c r="H32" s="5">
+        <v>75.58</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1031.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1027.jpg</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C33:C106 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1031a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C33:C110 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1027a.jpg</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C33:C106 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1031b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C33:C110 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1027b.jpg</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H33" s="5">
-        <v>36.61</v>
+        <v>88.12</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C34" s="3">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1032.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1028.jpg</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C34:C107 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1032a.png</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C34:C107 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1032b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C34:C111 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1028b.jpg</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H34" s="5">
-        <v>41.79</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C35" s="3">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1033.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1029.jpg</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C35:C108 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1033a.png</v>
-      </c>
-      <c r="F35" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C35:C108 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1033b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C35:C112 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1029b.jpg</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H35" s="5">
-        <v>49.78</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C36" s="3">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1034.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1030.jpg</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C36:C109 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1034b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C36:C113 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1030a.jpg</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C36:C113 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1030b.jpg</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H36" s="5">
-        <v>8</v>
+        <v>298</v>
+      </c>
+      <c r="H36" s="6">
+        <v>118.46</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1035.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1031.jpg</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C37:C110 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1035b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C37:C114 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1031a.jpg</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C37:C114 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1031b.jpg</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H37" s="5">
-        <v>36.08</v>
+        <v>36.61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D38" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1036.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1032.jpg</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C38:C111 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1036a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C38:C115 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1032a.jpg</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C38:C111 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1036b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C38:C115 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1032b.jpg</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H38" s="5">
-        <v>400.64</v>
+        <v>41.79</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1037.png</v>
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1033.jpg</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C39:C112 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1037a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C39:C116 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1033a.jpg</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C39:C112 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1037b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C39:C116 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1033b.jpg</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H39" s="5">
-        <v>80.12</v>
+        <v>49.78</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1038</v>
-      </c>
-      <c r="D40" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1038.png</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C40:C113 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1038b.png</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H40" s="5">
-        <v>119.05</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1077</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>products_img\\Product_details_JPG\\1077.jpg</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C40:C117 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1077a.jpg</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C40:C117 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1077b.jpg</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="H40" s="12">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1039.png</v>
+        <f t="shared" ref="D41:D65" si="7" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C41:C117 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1034.jpg</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" ref="E41:E56" si="2" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C41:C114 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1039a.png</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <f t="shared" ref="F41:F56" si="3" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C41:C114 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1039b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C41:C117 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1034b.jpg</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H41" s="5">
-        <v>60.11</v>
+        <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C42" s="3">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1040.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1035.jpg</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1040a.png</v>
-      </c>
-      <c r="F42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1040b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C42:C118 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1035b.jpg</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H42" s="5">
-        <v>132.77000000000001</v>
+        <v>36.08</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="D43" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1041.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1036.jpg</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1041a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C43:C119 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1036a.jpg</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1041b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C43:C119 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1036b.jpg</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H43" s="5">
-        <v>83.57</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>224</v>
+        <v>400.64</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1042.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1037.jpg</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1042a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C44:C120 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1037a.jpg</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1042b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C44:C120 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1037b.jpg</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H44" s="5">
-        <v>41.79</v>
+        <v>80.12</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C45" s="3">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="D45" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1043.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1038.jpg</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1043a.png</v>
-      </c>
-      <c r="F45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1043b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C45:C121 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1038b.jpg</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H45" s="5">
-        <v>195.18</v>
+        <v>119.05</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D46" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1044.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1039.jpg</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1044a.png</v>
+        <f t="shared" ref="E46:E61" si="8" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1039a.jpg</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1044b.png</v>
+        <f t="shared" ref="F46:F61" si="9" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C46:C122 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1039b.jpg</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H46" s="5">
-        <v>50.92</v>
+        <v>60.11</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D47" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1045.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1040.jpg</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1045a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1040a.jpg</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1045b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1040b.jpg</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="H47" s="5">
-        <v>53.82</v>
+        <v>132.77000000000001</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C48" s="3">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="D48" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1046.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1041.jpg</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1046a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1041a.jpg</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1046b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1041b.jpg</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H48" s="5">
-        <v>53.82</v>
+        <v>83.57</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>126</v>
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C49" s="3">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="D49" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1047.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1042.jpg</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1047a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1042a.jpg</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1047b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1042b.jpg</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H49" s="6">
-        <v>58.96</v>
+        <v>310</v>
+      </c>
+      <c r="H49" s="5">
+        <v>41.79</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C50" s="3">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1048.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1043.jpg</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1048a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1043a.jpg</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1048b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1043b.jpg</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H50" s="5">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>236</v>
+        <v>195.18</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="D51" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1049.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1044.jpg</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1049a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1044a.jpg</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1049b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1044b.jpg</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H51" s="5">
-        <v>34.340000000000003</v>
+        <v>50.92</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C52" s="3">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="D52" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1050.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1045.jpg</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1050a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1045a.jpg</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1050b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1045b.jpg</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H52" s="5">
-        <v>45.24</v>
+        <v>53.82</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="D53" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1051.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1046.jpg</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1051a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1046a.jpg</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1051b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1046b.jpg</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="H53" s="5">
-        <v>52.68</v>
+        <v>53.82</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>131</v>
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C54" s="3">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D54" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>products_img\\Products_details_PNG\\1052.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1047.jpg</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1052a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1047a.jpg</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1052b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1047b.jpg</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H54" s="5">
-        <v>45.24</v>
+        <v>315</v>
+      </c>
+      <c r="H54" s="6">
+        <v>58.96</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C55" s="3">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="D55" s="4" t="str">
-        <f t="shared" ref="D55:D86" si="4" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C55:C128 &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1053.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1048.jpg</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1053a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1048a.jpg</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1053b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1048b.jpg</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H55" s="5">
-        <v>47.53</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>133</v>
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C56" s="3">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="D56" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1054.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1049.jpg</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>products_img\\Products_details_PNG\\1054a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1049a.jpg</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>products_img\\Products_details_PNG\\1054b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1049b.jpg</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H56" s="6">
+        <v>317</v>
+      </c>
+      <c r="H56" s="5">
         <v>34.340000000000003</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C57" s="3">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D57" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1055.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1050.jpg</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C57:C130 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1055b.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1050a.jpg</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1050b.jpg</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H57" s="5">
-        <v>13.76</v>
+        <v>45.24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1056.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1051.jpg</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" ref="E58:E63" si="5" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C58:C131 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1056a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1051a.jpg</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" ref="F58:F63" si="6" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C58:C131 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1056b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1051b.jpg</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H58" s="5">
-        <v>51.49</v>
+        <v>52.68</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D59" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1057.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1052.jpg</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\\Products_details_PNG\\1057a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1052a.jpg</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>products_img\\Products_details_PNG\\1057b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1052b.jpg</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H59" s="5">
-        <v>42.92</v>
+        <v>45.24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C60" s="3">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="D60" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1058.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1053.jpg</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\\Products_details_PNG\\1058a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1053a.jpg</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>products_img\\Products_details_PNG\\1058b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1053b.jpg</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H60" s="5">
-        <v>49.78</v>
+        <v>47.53</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>138</v>
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C61" s="3">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1059.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1054.jpg</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\\Products_details_PNG\\1059a.png</v>
+        <f t="shared" si="8"/>
+        <v>products_img\\Product_details_JPG\\1054a.jpg</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>products_img\\Products_details_PNG\\1059b.png</v>
+        <f t="shared" si="9"/>
+        <v>products_img\\Product_details_JPG\\1054b.jpg</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H61" s="5">
-        <v>53.25</v>
+        <v>322</v>
+      </c>
+      <c r="H61" s="6">
+        <v>34.340000000000003</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C62" s="3">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D62" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1060.png</v>
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1055.jpg</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\\Products_details_PNG\\1060a.png</v>
-      </c>
-      <c r="F62" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>products_img\\Products_details_PNG\\1060b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C62:C138 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1055b.jpg</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H62" s="5">
-        <v>17.739999999999998</v>
+        <v>13.76</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1062</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1062.png</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>products_img\\Products_details_PNG\\1062a.png</v>
-      </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>products_img\\Products_details_PNG\\1062b.png</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H63" s="6">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1063</v>
-      </c>
-      <c r="D64" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1063.png</v>
-      </c>
-      <c r="E64" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C64:C137 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1063b.png</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1116.3399999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1064</v>
-      </c>
-      <c r="D65" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1064.png</v>
-      </c>
-      <c r="E65" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C65:C138 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1064a.png</v>
-      </c>
-      <c r="F65" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C65:C138 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1064b.png</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H65" s="5">
-        <v>75.19</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1079</v>
+      </c>
+      <c r="D63" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1079.jpg</v>
+      </c>
+      <c r="E63" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C63:C139 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1079a.jpg</v>
+      </c>
+      <c r="F63" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C63:C139 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1079b.jpg</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H63" s="12">
+        <v>76.69</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1080</v>
+      </c>
+      <c r="D64" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1080.jpg</v>
+      </c>
+      <c r="E64" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C64:C140 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1080a.jpg</v>
+      </c>
+      <c r="F64" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C64:C140 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1080b.jpg</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H64" s="12">
+        <v>76.69</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1081</v>
+      </c>
+      <c r="D65" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>products_img\\Product_details_JPG\\1081.jpg</v>
+      </c>
+      <c r="E65" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C65:C141 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1081a.jpg</v>
+      </c>
+      <c r="F65" s="8" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C65:C141 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1081b.jpg</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H65" s="12">
+        <v>63.52</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>143</v>
+      <c r="A66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="C66" s="3">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1065.png</v>
+        <f t="shared" ref="D66:D83" si="10" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1056.jpg</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C66:C139 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1065b.png</v>
+        <f t="shared" ref="E66:E71" si="11" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1056a.jpg</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" ref="F66:F71" si="12" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C66:C139 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1056b.jpg</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>151</v>
+        <v>324</v>
+      </c>
+      <c r="H66" s="5">
+        <v>51.49</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="D67" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1066.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1057.jpg</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C67:C140 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1066b.png</v>
+        <f t="shared" si="11"/>
+        <v>products_img\\Product_details_JPG\\1057a.jpg</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>products_img\\Product_details_JPG\\1057b.jpg</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H67" s="5">
-        <v>57.23</v>
+        <v>42.92</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1067.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1058.jpg</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C68:C141 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1067b.png</v>
+        <f t="shared" si="11"/>
+        <v>products_img\\Product_details_JPG\\1058a.jpg</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>products_img\\Product_details_JPG\\1058b.jpg</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H68" s="5">
-        <v>57.23</v>
+        <v>49.78</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="D69" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1068.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1059.jpg</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" ref="E69:E75" si="7" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C69:C142 &amp;"a" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1068a.png</v>
+        <f t="shared" si="11"/>
+        <v>products_img\\Product_details_JPG\\1059a.jpg</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" ref="F69:F75" si="8" xml:space="preserve"> "products_img\\Products_details_PNG\\" &amp; C69:C142 &amp;"b" &amp;".png"</f>
-        <v>products_img\\Products_details_PNG\\1068b.png</v>
+        <f t="shared" si="12"/>
+        <v>products_img\\Product_details_JPG\\1059b.jpg</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="H69" s="5">
-        <v>127.62</v>
+        <v>53.25</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="D70" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1069.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1060.jpg</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1069a.png</v>
+        <f t="shared" si="11"/>
+        <v>products_img\\Product_details_JPG\\1060a.jpg</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1069b.png</v>
+        <f t="shared" si="12"/>
+        <v>products_img\\Product_details_JPG\\1060b.jpg</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H70" s="5">
-        <v>60.11</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>148</v>
+      <c r="A71" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C71" s="3">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="D71" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1070.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1062.jpg</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1070a.png</v>
+        <f t="shared" si="11"/>
+        <v>products_img\\Product_details_JPG\\1062a.jpg</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1070b.png</v>
+        <f t="shared" si="12"/>
+        <v>products_img\\Product_details_JPG\\1062b.jpg</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="H71" s="5">
-        <v>86.44</v>
+        <v>329</v>
+      </c>
+      <c r="H71" s="6">
+        <v>34.340000000000003</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D72" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1071.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1063.jpg</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1071a.png</v>
-      </c>
-      <c r="F72" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1071b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C72:C145 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1063b.jpg</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H72" s="5">
-        <v>10.31</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>273</v>
+        <v>1116.3399999999999</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C73" s="3">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D73" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1072.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1064.jpg</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1072a.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C73:C146 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1064a.jpg</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1072b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C73:C146 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1064b.jpg</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H73" s="5">
-        <v>320.5</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>345</v>
+        <v>75.19</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>276</v>
+      <c r="A74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C74" s="3">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="D74" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1073.png</v>
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1065.jpg</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1073a.png</v>
-      </c>
-      <c r="F74" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1073b.png</v>
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C74:C147 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1065b.jpg</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H74" s="5">
-        <v>270.32</v>
+        <v>332</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C75" s="3">
+        <v>1066</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1066.jpg</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C75:C148 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1066b.jpg</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="5">
+        <v>57.23</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1067</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1067.jpg</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C76:C149 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1067b.jpg</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H76" s="5">
+        <v>57.23</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="3">
+        <v>1068</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1068.jpg</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f t="shared" ref="E77:E83" si="13" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"a" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1068a.jpg</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f t="shared" ref="F77:F83" si="14" xml:space="preserve"> "products_img\\Product_details_JPG\\" &amp; C77:C150 &amp;"b" &amp;".jpg"</f>
+        <v>products_img\\Product_details_JPG\\1068b.jpg</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H77" s="5">
+        <v>127.62</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1069</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1069.jpg</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1069a.jpg</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1069b.jpg</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" s="5">
+        <v>60.11</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1070</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1070.jpg</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1070a.jpg</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1070b.jpg</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H79" s="5">
+        <v>86.44</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1071</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1071.jpg</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1071a.jpg</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1071b.jpg</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H80" s="5">
+        <v>10.31</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1072</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1072.jpg</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1072a.jpg</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1072b.jpg</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H81" s="5">
+        <v>320.5</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1073</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1073.jpg</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1073a.jpg</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1073b.jpg</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H82" s="5">
+        <v>270.32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="3">
         <v>1074</v>
       </c>
-      <c r="D75" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>products_img\\Products_details_PNG\\1074.png</v>
-      </c>
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>products_img\\Products_details_PNG\\1074a.png</v>
-      </c>
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>products_img\\Products_details_PNG\\1074b.png</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H75" s="5">
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>products_img\\Product_details_JPG\\1074.jpg</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>products_img\\Product_details_JPG\\1074a.jpg</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>products_img\\Product_details_JPG\\1074b.jpg</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H83" s="5">
         <v>337.32</v>
       </c>
     </row>

--- a/products_categories/Products details.xlsx
+++ b/products_categories/Products details.xlsx
@@ -1340,9 +1340,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>usage</t>
-  </si>
-  <si>
     <t>storage</t>
   </si>
   <si>
@@ -1527,6 +1524,9 @@
   </si>
   <si>
     <t>Направи запитване</t>
+  </si>
+  <si>
+    <t>howToUse</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1953,10 +1953,10 @@
         <v>344</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
         <v>products_img\\Product_details_JPG\\1000b.jpg</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H2" s="5">
         <v>59.54</v>
@@ -2020,7 +2020,7 @@
         <v>products_img\\Product_details_JPG\\1001b.jpg</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H3" s="5">
         <v>59.54</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C4" s="9">
         <v>1075</v>
@@ -2058,13 +2058,13 @@
         <v>products_img\\Product_details_JPG\\1075b.jpg</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H4" s="12">
         <v>59.54</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>153</v>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C5" s="9">
         <v>1082</v>
@@ -2096,19 +2096,19 @@
         <v>products_img\\Product_details_JPG\\1082b.jpg</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H5" s="12">
         <v>55.51</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>products_img\\Product_details_JPG\\1002b.jpg</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H6" s="5">
         <v>59.54</v>
@@ -2164,7 +2164,7 @@
         <v>products_img\\Product_details_JPG\\1003b.jpg</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H7" s="5">
         <v>178.61</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="C8" s="9">
         <v>1004</v>
@@ -2195,13 +2195,13 @@
         <v>products_img\\Product_details_JPG\\1004b.jpg</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H8" s="12">
         <v>178.61</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>153</v>
@@ -2225,7 +2225,7 @@
         <v>products_img\\Product_details_JPG\\1005b.jpg</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H9" s="5">
         <v>178.61</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="C14" s="9">
         <v>1076</v>
@@ -2407,16 +2407,16 @@
         <v>products_img\\Product_details_JPG\\1076b.jpg</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H14" s="12">
         <v>8.58</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2522,10 +2522,10 @@
     </row>
     <row r="18" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="C18" s="9">
         <v>1078</v>
@@ -2543,16 +2543,16 @@
         <v>products_img\\Product_details_JPG\\1078b.jpg</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H18" s="12">
         <v>32.61</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3240,10 +3240,10 @@
     </row>
     <row r="40" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="C40" s="9">
         <v>1077</v>
@@ -3261,16 +3261,16 @@
         <v>products_img\\Product_details_JPG\\1077b.jpg</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H40" s="12">
         <v>72.680000000000007</v>
       </c>
       <c r="I40" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4017,10 +4017,10 @@
     </row>
     <row r="63" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C63" s="9">
         <v>1079</v>
@@ -4038,24 +4038,24 @@
         <v>products_img\\Product_details_JPG\\1079b.jpg</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H63" s="12">
         <v>76.69</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C64" s="9">
         <v>1080</v>
@@ -4073,24 +4073,24 @@
         <v>products_img\\Product_details_JPG\\1080b.jpg</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H64" s="12">
         <v>76.69</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C65" s="9">
         <v>1081</v>
@@ -4108,16 +4108,16 @@
         <v>products_img\\Product_details_JPG\\1081b.jpg</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H65" s="12">
         <v>63.52</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J65" s="8" t="s">
         <v>387</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4406,7 +4406,7 @@
         <v>332</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
